--- a/Cleaned-Data-Zainab_Azeez.xlsx
+++ b/Cleaned-Data-Zainab_Azeez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48091B31-C1D5-4167-BABE-C84FB0D378A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FD823C-0623-4646-AE47-66BEBA99E168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{788EF283-234F-4066-A7BD-1B8BDC151DB3}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{788EF283-234F-4066-A7BD-1B8BDC151DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaning_Data_2" sheetId="1" r:id="rId1"/>
@@ -3657,19 +3657,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3735,7 +3739,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECFF43F1-CA72-4475-853F-3681B350A71F}" name="AlbumList" displayName="AlbumList" ref="A1:F501" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECFF43F1-CA72-4475-853F-3681B350A71F}" name="AlbumList" displayName="AlbumList" ref="A1:F501" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:F501" xr:uid="{ECFF43F1-CA72-4475-853F-3681B350A71F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3750,14 +3754,14 @@
     <tableColumn id="3" xr3:uid="{D1222DA7-D194-4624-A13E-779DA542872A}" name="Artist"/>
     <tableColumn id="4" xr3:uid="{5C41BF59-D9D9-4CA1-997B-AEF763655AAA}" name="Genre"/>
     <tableColumn id="5" xr3:uid="{6FB2E8AB-35B4-4CCF-99EA-E89F6FB6A498}" name="Subgenre"/>
-    <tableColumn id="6" xr3:uid="{F9DE0E89-8FBA-45CF-A49B-760F9E6D9AE8}" name="Total Sales" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F9DE0E89-8FBA-45CF-A49B-760F9E6D9AE8}" name="Total Sales" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C546AE6A-0428-4A18-8D6B-C7FD615BDD68}" name="Table2" displayName="Table2" ref="A1:R20" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C546AE6A-0428-4A18-8D6B-C7FD615BDD68}" name="Table2" displayName="Table2" ref="A1:R20" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:R20" xr:uid="{583934D5-DE4C-4CCB-933A-2DB7E2A9C09E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3809,8 +3813,8 @@
     <tableColumn id="12" xr3:uid="{4695D266-A419-4293-9D03-087622A636F2}" name="Column8">
       <calculatedColumnFormula>LEN(J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9E3AC755-8E24-4FD5-B66C-D0438ACB1C8C}" name="Salary">
-      <calculatedColumnFormula>LEFT(J2,K2-1)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{9E3AC755-8E24-4FD5-B66C-D0438ACB1C8C}" name="Salary" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>"$" &amp; LEFT(J2,K2-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{4FBE8E61-A103-4A1A-A4E8-8A0EDBBA05D8}" name="Column9">
       <calculatedColumnFormula>RIGHT(J2,L2-K2)</calculatedColumnFormula>
@@ -4134,7 +4138,7 @@
   </sheetPr>
   <dimension ref="A1:F504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -14189,8 +14193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE61E02-BBA8-4248-8B18-4A16F5722E96}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14202,6 +14206,7 @@
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
     <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" customWidth="1"/>
@@ -14244,7 +14249,7 @@
       <c r="L1" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>1123</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -14309,9 +14314,9 @@
         <f>LEN(J2)</f>
         <v>18</v>
       </c>
-      <c r="M2" t="str">
-        <f>LEFT(J2,K2-1)</f>
-        <v>39000</v>
+      <c r="M2" s="2" t="str">
+        <f t="shared" ref="M2:M20" si="3">"$" &amp; LEFT(J2,K2-1)</f>
+        <v>$39000</v>
       </c>
       <c r="N2" t="str">
         <f>RIGHT(J2,L2-K2)</f>
@@ -14339,7 +14344,7 @@
         <v>1132</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B20" si="3">PROPER(LEFT(A3,FIND(";",A3) - 1))</f>
+        <f t="shared" ref="B3:B20" si="4">PROPER(LEFT(A3,FIND(";",A3) - 1))</f>
         <v xml:space="preserve">Abraham, Johnny </v>
       </c>
       <c r="C3" t="s">
@@ -14349,11 +14354,11 @@
         <v>1134</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E20" si="4">RIGHT(A3,LEN(A3)-FIND(";",A3))</f>
+        <f t="shared" ref="E3:E20" si="5">RIGHT(A3,LEN(A3)-FIND(";",A3))</f>
         <v>03/30/2013;27000;ENGINEERING;TRAINEE</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="5">FIND(";",E3)</f>
+        <f t="shared" ref="F3:F20" si="6">FIND(";",E3)</f>
         <v>11</v>
       </c>
       <c r="G3">
@@ -14361,7 +14366,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H20" si="6">CONCATENATE(C3," ", D3)</f>
+        <f t="shared" ref="H3:H20" si="7">CONCATENATE(C3," ", D3)</f>
         <v>Abraham Johnny</v>
       </c>
       <c r="I3" t="str">
@@ -14373,16 +14378,16 @@
         <v>27000;ENGINEERING;TRAINEE</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="7">FIND(";",J3)</f>
+        <f t="shared" ref="K3:K20" si="8">FIND(";",J3)</f>
         <v>6</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L20" si="8">LEN(J3)</f>
+        <f t="shared" ref="L3:L20" si="9">LEN(J3)</f>
         <v>25</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M20" si="9">LEFT(J3,K3-1)</f>
-        <v>27000</v>
+      <c r="M3" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$27000</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N20" si="10">RIGHT(J3,L3-K3)</f>
@@ -14410,7 +14415,7 @@
         <v>1135</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Baker, Sarah</v>
       </c>
       <c r="C4" t="s">
@@ -14420,11 +14425,11 @@
         <v>1137</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>04/30/2015;36000;SALES;SALES EXECUTIVE</v>
       </c>
       <c r="F4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G4">
@@ -14432,7 +14437,7 @@
         <v>38</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Baker Sarah</v>
       </c>
       <c r="I4" t="str">
@@ -14444,16 +14449,16 @@
         <v>36000;SALES;SALES EXECUTIVE</v>
       </c>
       <c r="K4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="9"/>
-        <v>36000</v>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$36000</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="10"/>
@@ -14481,7 +14486,7 @@
         <v>1138</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Balotelli, Billy</v>
       </c>
       <c r="C5" t="s">
@@ -14491,11 +14496,11 @@
         <v>1140</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11/15/2007;23900;ENGINEERING;INTERN</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G5">
@@ -14503,7 +14508,7 @@
         <v>35</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Balotelli Billy</v>
       </c>
       <c r="I5" t="str">
@@ -14515,16 +14520,16 @@
         <v>23900;ENGINEERING;INTERN</v>
       </c>
       <c r="K5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="9"/>
-        <v>23900</v>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$23900</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="10"/>
@@ -14552,7 +14557,7 @@
         <v>1141</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Bishop, Tiana </v>
       </c>
       <c r="C6" t="s">
@@ -14562,11 +14567,11 @@
         <v>1143</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37959;46500;ENGINEERING;MANAGER</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G6">
@@ -14574,7 +14579,7 @@
         <v>31</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Bishop Tiana</v>
       </c>
       <c r="I6" t="str">
@@ -14586,16 +14591,16 @@
         <v>46500;ENGINEERING;MANAGER</v>
       </c>
       <c r="K6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="9"/>
-        <v>46500</v>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$46500</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="10"/>
@@ -14623,7 +14628,7 @@
         <v>1144</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Boateng, Terryy</v>
       </c>
       <c r="C7" t="s">
@@ -14633,11 +14638,11 @@
         <v>1146</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>07/27/2009;50000;ACCOUNTS;COST ACCOUNTANT</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G7">
@@ -14645,7 +14650,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Boateng Terryy</v>
       </c>
       <c r="I7" t="str">
@@ -14657,16 +14662,16 @@
         <v>50000;ACCOUNTS;COST ACCOUNTANT</v>
       </c>
       <c r="K7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="9"/>
-        <v>50000</v>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$50000</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="10"/>
@@ -14694,7 +14699,7 @@
         <v>1147</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Boer, Fred </v>
       </c>
       <c r="C8" t="s">
@@ -14704,11 +14709,11 @@
         <v>1149</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12/23/2010;46000;MKTG;DESIGNER</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G8">
@@ -14716,7 +14721,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Boer Fred</v>
       </c>
       <c r="I8" t="str">
@@ -14728,16 +14733,16 @@
         <v>46000;MKTG;DESIGNER</v>
       </c>
       <c r="K8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="9"/>
-        <v>46000</v>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$46000</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="10"/>
@@ -14765,7 +14770,7 @@
         <v>1150</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Barker, Betty</v>
       </c>
       <c r="C9" t="s">
@@ -14775,11 +14780,11 @@
         <v>1152</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>07/25/2007;43500;SALES;SALES EXECUTIVE</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G9">
@@ -14787,7 +14792,7 @@
         <v>38</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Barker Betty</v>
       </c>
       <c r="I9" t="str">
@@ -14799,16 +14804,16 @@
         <v>43500;SALES;SALES EXECUTIVE</v>
       </c>
       <c r="K9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" si="9"/>
-        <v>43500</v>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$43500</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="10"/>
@@ -14836,7 +14841,7 @@
         <v>1153</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Bursteyn , Tom </v>
       </c>
       <c r="C10" t="s">
@@ -14846,11 +14851,11 @@
         <v>1155</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36834;21000;SALES;SALES TRAINEE</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G10">
@@ -14858,7 +14863,7 @@
         <v>31</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Bursteyn  Tom</v>
       </c>
       <c r="I10" t="str">
@@ -14870,16 +14875,16 @@
         <v>21000;SALES;SALES TRAINEE</v>
       </c>
       <c r="K10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="9"/>
-        <v>21000</v>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$21000</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="10"/>
@@ -14907,7 +14912,7 @@
         <v>1156</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Bursteyn, Tammy </v>
       </c>
       <c r="C11" t="s">
@@ -14917,11 +14922,11 @@
         <v>1158</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38238;38000;SALES;SALES EXECUTIVE</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G11">
@@ -14929,7 +14934,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Bursteyn Tammy</v>
       </c>
       <c r="I11" t="str">
@@ -14941,16 +14946,16 @@
         <v>38000;SALES;SALES EXECUTIVE</v>
       </c>
       <c r="K11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="9"/>
-        <v>38000</v>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$38000</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="10"/>
@@ -14978,7 +14983,7 @@
         <v>1159</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Busser, Bobby</v>
       </c>
       <c r="C12" t="s">
@@ -14988,11 +14993,11 @@
         <v>1161</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37417;29950;ACCOUNTS;SENIOR ADMINISTRATOR</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G12">
@@ -15000,7 +15005,7 @@
         <v>41</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Busser Bobby</v>
       </c>
       <c r="I12" t="str">
@@ -15012,16 +15017,16 @@
         <v>29950;ACCOUNTS;SENIOR ADMINISTRATOR</v>
       </c>
       <c r="K12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" si="9"/>
-        <v>29950</v>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$29950</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="10"/>
@@ -15049,7 +15054,7 @@
         <v>1162</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Casciewicz, Kathy</v>
       </c>
       <c r="C13" t="s">
@@ -15059,11 +15064,11 @@
         <v>1164</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> 12/15/2011;41000;SALES;SENIOR TECHNICIAN</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G13">
@@ -15071,7 +15076,7 @@
         <v>41</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Casciewicz Kathy</v>
       </c>
       <c r="I13" t="str">
@@ -15083,16 +15088,16 @@
         <v>41000;SALES;SENIOR TECHNICIAN</v>
       </c>
       <c r="K13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="9"/>
-        <v>41000</v>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$41000</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="10"/>
@@ -15120,7 +15125,7 @@
         <v>1165</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Cole, Ashley </v>
       </c>
       <c r="C14" t="s">
@@ -15130,11 +15135,11 @@
         <v>1167</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40483;54000;SALES;COST ACCOUNTANT</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G14">
@@ -15142,7 +15147,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Cole Ashley</v>
       </c>
       <c r="I14" t="str">
@@ -15154,16 +15159,16 @@
         <v>54000;SALES;COST ACCOUNTANT</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="M14" t="str">
-        <f t="shared" si="9"/>
-        <v>54000</v>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$54000</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="10"/>
@@ -15191,7 +15196,7 @@
         <v>1168</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cookson, Charles</v>
       </c>
       <c r="C15" t="s">
@@ -15201,11 +15206,11 @@
         <v>1170</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> 04/03/2012;63200;R &amp; D;VP</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G15">
@@ -15213,7 +15218,7 @@
         <v>26</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Cookson Charles</v>
       </c>
       <c r="I15" t="str">
@@ -15225,16 +15230,16 @@
         <v>63200;R &amp; D;VP</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="M15" t="str">
-        <f t="shared" si="9"/>
-        <v>63200</v>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$63200</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="10"/>
@@ -15262,7 +15267,7 @@
         <v>1171</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Crossley, Erin </v>
       </c>
       <c r="C16" t="s">
@@ -15272,11 +15277,11 @@
         <v>1173</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>04/23/2009;46000;ADMIN;TEAM LEADER</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G16">
@@ -15284,7 +15289,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Crossley Erin</v>
       </c>
       <c r="I16" t="str">
@@ -15296,16 +15301,16 @@
         <v>46000;ADMIN;TEAM LEADER</v>
       </c>
       <c r="K16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="M16" t="str">
-        <f t="shared" si="9"/>
-        <v>46000</v>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$46000</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="10"/>
@@ -15333,7 +15338,7 @@
         <v>1174</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Doe, Jane </v>
       </c>
       <c r="C17" t="s">
@@ -15343,11 +15348,11 @@
         <v>1176</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>07/25/2015;21500;R &amp; D;TRAINEE</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G17">
@@ -15355,7 +15360,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Doe Jane</v>
       </c>
       <c r="I17" t="str">
@@ -15367,16 +15372,16 @@
         <v>21500;R &amp; D;TRAINEE</v>
       </c>
       <c r="K17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" si="9"/>
-        <v>21500</v>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$21500</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="10"/>
@@ -15404,7 +15409,7 @@
         <v>1177</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Doe, John  </v>
       </c>
       <c r="C18" t="s">
@@ -15414,11 +15419,11 @@
         <v>1178</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> 06/05/2014;45600;ENGINEERING;INTERN</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G18">
@@ -15426,7 +15431,7 @@
         <v>36</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Doe John</v>
       </c>
       <c r="I18" t="str">
@@ -15438,16 +15443,16 @@
         <v>45600;ENGINEERING;INTERN</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" si="9"/>
-        <v>45600</v>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$45600</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="10"/>
@@ -15475,7 +15480,7 @@
         <v>1179</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Darnstein, Danny</v>
       </c>
       <c r="C19" t="s">
@@ -15485,11 +15490,11 @@
         <v>1181</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> 12/14/2011;52000;ENGINEERING;COST ACCOUNTANT</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G19">
@@ -15497,7 +15502,7 @@
         <v>45</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Darnstein Danny</v>
       </c>
       <c r="I19" t="str">
@@ -15509,16 +15514,16 @@
         <v>52000;ENGINEERING;COST ACCOUNTANT</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="9"/>
-        <v>52000</v>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$52000</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="10"/>
@@ -15546,7 +15551,7 @@
         <v>1182</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Fallengrano, Bill </v>
       </c>
       <c r="C20" t="s">
@@ -15556,11 +15561,11 @@
         <v>1184</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> 06/29/2001;56750;ENGINEERING;SENIOR ADMINISTRATOR</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G20">
@@ -15568,7 +15573,7 @@
         <v>50</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Fallengrano Bill</v>
       </c>
       <c r="I20" t="str">
@@ -15580,16 +15585,16 @@
         <v>56750;ENGINEERING;SENIOR ADMINISTRATOR</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="9"/>
-        <v>56750</v>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>$56750</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="10"/>
